--- a/04_notes/ECCC_metadata.xlsx
+++ b/04_notes/ECCC_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Desktop\Jess\LDP Internship\LDP-Internship\04_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4684E8AF-9B54-416A-A6BE-931139A32B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576F7B01-99F3-4909-A56D-3CAC461A3B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
   <si>
     <t>Column name</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>Molar ratio of PN to PP</t>
+  </si>
+  <si>
+    <t>Data are averages, which DataStream does not accept</t>
+  </si>
+  <si>
+    <t>Did not include: PCPN, PCPP, PNPP, Na_perc, and OH_mg.L columns because cannot find metadata on them</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275D6BF-9C62-4FC4-B9B5-4B755ECD8D47}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C53D5CE-6511-4009-A717-0C76867A9D22}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1801,10 @@
         <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,6 +1923,9 @@
       <c r="C20" t="s">
         <v>142</v>
       </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1925,6 +1937,9 @@
       <c r="C21" t="s">
         <v>142</v>
       </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1936,6 +1951,9 @@
       <c r="C22" t="s">
         <v>142</v>
       </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1946,6 +1964,9 @@
       </c>
       <c r="C23" t="s">
         <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/04_notes/ECCC_metadata.xlsx
+++ b/04_notes/ECCC_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Desktop\Jess\LDP Internship\LDP-Internship\04_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576F7B01-99F3-4909-A56D-3CAC461A3B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A89C2-29A0-4C26-A413-C6F621667700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
+    <workbookView xWindow="20370" yWindow="-2880" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="167">
   <si>
     <t>Column name</t>
   </si>
@@ -141,18 +141,9 @@
     <t>Sample location ID</t>
   </si>
   <si>
-    <t>Sample collection date</t>
-  </si>
-  <si>
     <t>Water temperature</t>
   </si>
   <si>
-    <t>Dissolved oxygen</t>
-  </si>
-  <si>
-    <t>Depth of sample measurement</t>
-  </si>
-  <si>
     <t>Specific conductivity</t>
   </si>
   <si>
@@ -168,64 +159,10 @@
     <t>Julian day of year</t>
   </si>
   <si>
-    <t>Total dissolved solids</t>
-  </si>
-  <si>
     <t>Conductivity</t>
   </si>
   <si>
-    <t>Total organic carbon</t>
-  </si>
-  <si>
-    <t>Dissolved organic carbon</t>
-  </si>
-  <si>
-    <t>Total nitrogen</t>
-  </si>
-  <si>
-    <t>Dissolved nitrogen</t>
-  </si>
-  <si>
-    <t>Particulate nitrogen</t>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-  </si>
-  <si>
-    <t>Particulate organic carbon</t>
-  </si>
-  <si>
-    <t>Nitrate nitrite</t>
-  </si>
-  <si>
-    <t>Hydroxide</t>
-  </si>
-  <si>
     <t>Total hardness</t>
-  </si>
-  <si>
-    <t>Dissolved sodium</t>
-  </si>
-  <si>
-    <t>Dissolved magnesium</t>
-  </si>
-  <si>
-    <t>Total phosphorus</t>
-  </si>
-  <si>
-    <t>Dissolved phosphorus</t>
-  </si>
-  <si>
-    <t>Particulate phosphorus</t>
-  </si>
-  <si>
-    <t>Dissolved sulfate</t>
-  </si>
-  <si>
-    <t>Dissolved potassium</t>
-  </si>
-  <si>
-    <t>Dissolved calcium</t>
   </si>
   <si>
     <t>mg/L</t>
@@ -268,12 +205,6 @@
     </r>
   </si>
   <si>
-    <t>Total alkalinity</t>
-  </si>
-  <si>
-    <t>Un-ionized ammonia</t>
-  </si>
-  <si>
     <t>Time_hydro</t>
   </si>
   <si>
@@ -292,7 +223,262 @@
     <t>Sample collection time on hydrolab sensor</t>
   </si>
   <si>
-    <t>Chlorophyll a (total algal biomass)</t>
+    <t>FreeCO2_mg.L</t>
+  </si>
+  <si>
+    <t>NH3_tot_mg.L</t>
+  </si>
+  <si>
+    <t>NH3_union_mg.L</t>
+  </si>
+  <si>
+    <t>F_diss_mg.L</t>
+  </si>
+  <si>
+    <t>Alk_tot_mg.L</t>
+  </si>
+  <si>
+    <t>Alk_p_mg.L</t>
+  </si>
+  <si>
+    <t>Hard_tot_mg.L</t>
+  </si>
+  <si>
+    <t>Hard_nonCO3_mg.L</t>
+  </si>
+  <si>
+    <t>Na_diss_mg.L</t>
+  </si>
+  <si>
+    <t>Mg_diss_mg.L</t>
+  </si>
+  <si>
+    <t>P_diss_ortho_mg.L</t>
+  </si>
+  <si>
+    <t>P_tot_mg.L</t>
+  </si>
+  <si>
+    <t>P_diss_mg.L</t>
+  </si>
+  <si>
+    <t>P_part_mg.L</t>
+  </si>
+  <si>
+    <t>SO4_diss_mg.L</t>
+  </si>
+  <si>
+    <t>Cl_diss_mg.L</t>
+  </si>
+  <si>
+    <t>K_diss_mg.L</t>
+  </si>
+  <si>
+    <t>Ca_diss_mg.L</t>
+  </si>
+  <si>
+    <t>Chla_mg.L</t>
+  </si>
+  <si>
+    <t>mS/cm</t>
+  </si>
+  <si>
+    <t>Sodium, percent total cations?</t>
+  </si>
+  <si>
+    <t>Depth of water column</t>
+  </si>
+  <si>
+    <t>Hydrolab 1993</t>
+  </si>
+  <si>
+    <t>Hydrolab 1994</t>
+  </si>
+  <si>
+    <t>Hydrolab 1995</t>
+  </si>
+  <si>
+    <t>Hydrolab 1996</t>
+  </si>
+  <si>
+    <t>WEVS 1998 Hydrolab data</t>
+  </si>
+  <si>
+    <t>WEVS 1999 Hydrolab data</t>
+  </si>
+  <si>
+    <t>Hydrolab summary for 2000</t>
+  </si>
+  <si>
+    <t>Looks like calibration output, ponds/dates/values did not match up with real data files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary data, no clue what pond it corresponds to, pelagic vs reed data which we've never seen before </t>
+  </si>
+  <si>
+    <t>Nutrient data for 1993</t>
+  </si>
+  <si>
+    <t>Nutrient data for 1994</t>
+  </si>
+  <si>
+    <t>Nutrient data for 1995</t>
+  </si>
+  <si>
+    <t>Nutrient data for 1996</t>
+  </si>
+  <si>
+    <t>Water level data 1993-96</t>
+  </si>
+  <si>
+    <t>Possible Error in Sulphates Values</t>
+  </si>
+  <si>
+    <t>Julian day calculation spreadsheet</t>
+  </si>
+  <si>
+    <t>Used info in this sheet to add to results comments sections of DataStream</t>
+  </si>
+  <si>
+    <t>This was modified already from Nutrient 1993-1996  files, and was just used for nutrient plots</t>
+  </si>
+  <si>
+    <t>Could not open them on latptop, were already converted from these .WK1 into the excel files in Data folder</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Reasoning/Notes</t>
+  </si>
+  <si>
+    <t>Data folder &gt; Hydrolab</t>
+  </si>
+  <si>
+    <t>Hydrolab 1997</t>
+  </si>
+  <si>
+    <t>Hydrolab 1993 in Quattro format.wb3</t>
+  </si>
+  <si>
+    <t>Folder path</t>
+  </si>
+  <si>
+    <t>Data folder &gt; Nutrient</t>
+  </si>
+  <si>
+    <t>Data folder &gt; Nutrient &gt; Original nutrient data from Regina</t>
+  </si>
+  <si>
+    <t>WEVS93.WK1</t>
+  </si>
+  <si>
+    <t>WEVS94.WK1</t>
+  </si>
+  <si>
+    <t>WEVS95.WK1</t>
+  </si>
+  <si>
+    <t>WEVS96.WK1</t>
+  </si>
+  <si>
+    <t>Wevs nutrient sumary file</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Used for DataStream?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Just a file for finding julian day of year, did not need this info for DataStream</t>
+  </si>
+  <si>
+    <t>Could not open on laptop, file was already converted to excel format so used that one instead</t>
+  </si>
+  <si>
+    <t>Data folder &gt; Water level data</t>
+  </si>
+  <si>
+    <t>Graphs folder</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Wevs disks from Marley</t>
+  </si>
+  <si>
+    <t>All files in this folder</t>
+  </si>
+  <si>
+    <t>Full of .jnb file types, I only wanted raw data so did not need anything in here for DataStream</t>
+  </si>
+  <si>
+    <t>Full of ArcGIS files and map images, I did not need anything in here for DataStream</t>
+  </si>
+  <si>
+    <t>Could not open them on laptop, files were already converted to excel format in Data folder so used those instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponds were sampled within a two-day period every 2 weeks from 1993–1995 and then monthly in 1996. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1997 and 1998 water samples were collected on an intermittent basis </t>
+  </si>
+  <si>
+    <t>In 1999 (for Ponds 50 and 109 only) and 2000 (Pond 50 only), water samples were collected on a fortnightly basis during the ice-free season. </t>
+  </si>
+  <si>
+    <t>Sampling frequency</t>
+  </si>
+  <si>
+    <t>Molar ratio of POC to PN</t>
+  </si>
+  <si>
+    <t>Molar ratio of POC to particulate phosphorus (PP)</t>
+  </si>
+  <si>
+    <t>Molar ratio of PN to PP</t>
+  </si>
+  <si>
+    <t>Data are averages, which DataStream does not accept</t>
+  </si>
+  <si>
+    <t>Did not include: PCPN, PCPP, PNPP, Na_perc, and OH_mg.L columns because cannot find metadata on them</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Sample collection date (YY:MM:DD format)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen concentration</t>
+  </si>
+  <si>
+    <t>Depth of water column where sample was taken</t>
+  </si>
+  <si>
+    <t>Total dissolved solids concentration</t>
+  </si>
+  <si>
+    <t>Total organic carbon concentration</t>
+  </si>
+  <si>
+    <t>Dissolved organic carbon concentration</t>
+  </si>
+  <si>
+    <t>Bicarbonate concentration</t>
+  </si>
+  <si>
+    <t>Carbonate concentration</t>
   </si>
   <si>
     <r>
@@ -338,260 +524,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> present in water)</t>
+      <t xml:space="preserve"> present in water) concentration</t>
     </r>
   </si>
   <si>
-    <t>Dissolved orthophosphate</t>
-  </si>
-  <si>
-    <t>FreeCO2_mg.L</t>
-  </si>
-  <si>
-    <t>NH3_tot_mg.L</t>
-  </si>
-  <si>
-    <t>NH3_union_mg.L</t>
-  </si>
-  <si>
-    <t>F_diss_mg.L</t>
-  </si>
-  <si>
-    <t>Alk_tot_mg.L</t>
-  </si>
-  <si>
-    <t>Alk_p_mg.L</t>
-  </si>
-  <si>
-    <t>Hard_tot_mg.L</t>
-  </si>
-  <si>
-    <t>Hard_nonCO3_mg.L</t>
-  </si>
-  <si>
-    <t>Na_diss_mg.L</t>
-  </si>
-  <si>
-    <t>Mg_diss_mg.L</t>
-  </si>
-  <si>
-    <t>P_diss_ortho_mg.L</t>
-  </si>
-  <si>
-    <t>P_tot_mg.L</t>
-  </si>
-  <si>
-    <t>P_diss_mg.L</t>
-  </si>
-  <si>
-    <t>P_part_mg.L</t>
-  </si>
-  <si>
-    <t>SO4_diss_mg.L</t>
-  </si>
-  <si>
-    <t>Cl_diss_mg.L</t>
-  </si>
-  <si>
-    <t>K_diss_mg.L</t>
-  </si>
-  <si>
-    <t>Ca_diss_mg.L</t>
-  </si>
-  <si>
-    <t>Chla_mg.L</t>
-  </si>
-  <si>
-    <t>mS/cm</t>
-  </si>
-  <si>
-    <t>Carbonate</t>
-  </si>
-  <si>
-    <t>Total ammonia (ammonia and ammonium)</t>
-  </si>
-  <si>
-    <t>Dissolved fluoride</t>
-  </si>
-  <si>
-    <t>Alkalinity, phenolphthalein?</t>
-  </si>
-  <si>
-    <t>Hardness, non-carbonate</t>
-  </si>
-  <si>
-    <t>Sodium, percent total cations?</t>
-  </si>
-  <si>
-    <t>Silica</t>
-  </si>
-  <si>
-    <t>Dissolved chloride</t>
-  </si>
-  <si>
-    <t>Depth of water column</t>
-  </si>
-  <si>
-    <t>Hydrolab 1993</t>
-  </si>
-  <si>
-    <t>Hydrolab 1994</t>
-  </si>
-  <si>
-    <t>Hydrolab 1995</t>
-  </si>
-  <si>
-    <t>Hydrolab 1996</t>
-  </si>
-  <si>
-    <t>WEVS 1998 Hydrolab data</t>
-  </si>
-  <si>
-    <t>WEVS 1999 Hydrolab data</t>
-  </si>
-  <si>
-    <t>Hydrolab summary for 2000</t>
-  </si>
-  <si>
-    <t>Looks like calibration output, ponds/dates/values did not match up with real data files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary data, no clue what pond it corresponds to, pelagic vs reed data which we've never seen before </t>
-  </si>
-  <si>
-    <t>Nutrient data for 1993</t>
-  </si>
-  <si>
-    <t>Nutrient data for 1994</t>
-  </si>
-  <si>
-    <t>Nutrient data for 1995</t>
-  </si>
-  <si>
-    <t>Nutrient data for 1996</t>
-  </si>
-  <si>
-    <t>Water level data 1993-96</t>
-  </si>
-  <si>
-    <t>Possible Error in Sulphates Values</t>
-  </si>
-  <si>
-    <t>Julian day calculation spreadsheet</t>
-  </si>
-  <si>
-    <t>Used info in this sheet to add to results comments sections of DataStream</t>
-  </si>
-  <si>
-    <t>This was modified already from Nutrient 1993-1996  files, and was just used for nutrient plots</t>
-  </si>
-  <si>
-    <t>Could not open them on latptop, were already converted from these .WK1 into the excel files in Data folder</t>
-  </si>
-  <si>
-    <t>File name</t>
-  </si>
-  <si>
-    <t>Reasoning/Notes</t>
-  </si>
-  <si>
-    <t>Data folder &gt; Hydrolab</t>
-  </si>
-  <si>
-    <t>Hydrolab 1997</t>
-  </si>
-  <si>
-    <t>Hydrolab 1993 in Quattro format.wb3</t>
-  </si>
-  <si>
-    <t>Folder path</t>
-  </si>
-  <si>
-    <t>Data folder &gt; Nutrient</t>
-  </si>
-  <si>
-    <t>Data folder &gt; Nutrient &gt; Original nutrient data from Regina</t>
-  </si>
-  <si>
-    <t>WEVS93.WK1</t>
-  </si>
-  <si>
-    <t>WEVS94.WK1</t>
-  </si>
-  <si>
-    <t>WEVS95.WK1</t>
-  </si>
-  <si>
-    <t>WEVS96.WK1</t>
-  </si>
-  <si>
-    <t>Wevs nutrient sumary file</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Used for DataStream?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Just a file for finding julian day of year, did not need this info for DataStream</t>
-  </si>
-  <si>
-    <t>Could not open on laptop, file was already converted to excel format so used that one instead</t>
-  </si>
-  <si>
-    <t>Data folder &gt; Water level data</t>
-  </si>
-  <si>
-    <t>Graphs folder</t>
-  </si>
-  <si>
-    <t>Maps</t>
-  </si>
-  <si>
-    <t>Wevs disks from Marley</t>
-  </si>
-  <si>
-    <t>All files in this folder</t>
-  </si>
-  <si>
-    <t>Full of .jnb file types, I only wanted raw data so did not need anything in here for DataStream</t>
-  </si>
-  <si>
-    <t>Full of ArcGIS files and map images, I did not need anything in here for DataStream</t>
-  </si>
-  <si>
-    <t>Could not open them on laptop, files were already converted to excel format in Data folder so used those instead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ponds were sampled within a two-day period every 2 weeks from 1993–1995 and then monthly in 1996. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 1997 and 1998 water samples were collected on an intermittent basis </t>
-  </si>
-  <si>
-    <t>In 1999 (for Ponds 50 and 109 only) and 2000 (Pond 50 only), water samples were collected on a fortnightly basis during the ice-free season. </t>
-  </si>
-  <si>
-    <t>Sampling frequency</t>
-  </si>
-  <si>
-    <t>Molar ratio of POC to PN</t>
-  </si>
-  <si>
-    <t>Molar ratio of POC to particulate phosphorus (PP)</t>
-  </si>
-  <si>
-    <t>Molar ratio of PN to PP</t>
-  </si>
-  <si>
-    <t>Data are averages, which DataStream does not accept</t>
-  </si>
-  <si>
-    <t>Did not include: PCPN, PCPP, PNPP, Na_perc, and OH_mg.L columns because cannot find metadata on them</t>
+    <t>Particulate organic carbon concentration</t>
+  </si>
+  <si>
+    <t>Nitrate nitrite concentration</t>
+  </si>
+  <si>
+    <t>Total ammonia (ammonia and ammonium) concentration</t>
+  </si>
+  <si>
+    <t>Un-ionized ammonia concentration</t>
+  </si>
+  <si>
+    <t>Total nitrogen concentration</t>
+  </si>
+  <si>
+    <t>Dissolved nitrogen concentration</t>
+  </si>
+  <si>
+    <t>Particulate nitrogen concentration</t>
+  </si>
+  <si>
+    <t>Hydroxide concentration</t>
+  </si>
+  <si>
+    <t>Dissolved fluoride concentration</t>
+  </si>
+  <si>
+    <t>Total alkalinity concentration</t>
+  </si>
+  <si>
+    <t>Alkalinity (phenolphthalein) concentration</t>
+  </si>
+  <si>
+    <t>Hardness (non-carbonate)</t>
+  </si>
+  <si>
+    <t>Dissolved sodium concentration</t>
+  </si>
+  <si>
+    <t>Dissolved magnesium concentration</t>
+  </si>
+  <si>
+    <t>Silica concentration</t>
+  </si>
+  <si>
+    <t>Dissolved orthophosphate concentration</t>
+  </si>
+  <si>
+    <t>Total phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Dissolved phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Particulate phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Dissolved sulfate concentration</t>
+  </si>
+  <si>
+    <t>Dissolved chloride concentration</t>
+  </si>
+  <si>
+    <t>Dissolved potassium concentration</t>
+  </si>
+  <si>
+    <t>Dissolved calcium concentration</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (total algal biomass) concentration</t>
+  </si>
+  <si>
+    <t>Variables that were not published on DataStream because could not find enough method details/metadata on them</t>
   </si>
 </sst>
 </file>
@@ -664,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,15 +691,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275D6BF-9C62-4FC4-B9B5-4B755ECD8D47}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,13 +1127,19 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,24 +1147,32 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,10 +1191,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,30 +1213,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,10 +1246,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,10 +1257,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,10 +1268,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1290,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,10 +1301,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1312,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,21 +1323,21 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,10 +1345,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,32 +1356,32 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,10 +1389,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,10 +1400,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,54 +1411,54 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
+      <c r="B29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,62 +1466,62 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,133 +1529,142 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>159</v>
+      <c r="B48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>160</v>
+      <c r="B49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>161</v>
+      <c r="B50" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1672,16 @@
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C53D5CE-6511-4009-A717-0C76867A9D22}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1667,407 +1708,407 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="5">
+        <v>98</v>
+      </c>
+      <c r="B2" s="4">
         <v>980814</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="5">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4">
         <v>980917</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="5">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4">
         <v>990420</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="5">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4">
         <v>990514</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
